--- a/pred_ohlcv/54_21/2019-10-29 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 STRAT ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>-38378.611</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-41924.0986</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-52010.2236</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-50737.81630000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-50737.81630000001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-49909.85800000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-22999.10870000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-30250.85740000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-40616.46240000002</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-40371.43800000002</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-40371.43800000002</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-40371.43800000002</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-40371.43800000002</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-40371.43800000002</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-40370.43800000002</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-40380.43800000002</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-48409.76540000002</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-48409.76540000002</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-50742.86350000002</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-50694.36720000002</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-50694.36720000002</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-50854.34770000002</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-59730.05730000002</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-59922.27560000002</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-57573.65040000002</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-57547.54080000002</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-58992.91950000002</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-58992.91950000002</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-58992.91950000002</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-59986.96270000002</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-58099.97540000002</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-58149.97540000002</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-59910.72020000002</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-65394.49300000002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-64785.16850000001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-64785.16850000001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-64785.16850000001</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-69498.02370000002</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-69498.02370000002</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-69467.02370000002</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-67183.42370000001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-67183.42370000001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-85156.09159999999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-101084.0618</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-103295.4985</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-103262.4985</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-103312.4985</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-103708.118</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-103707.118</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-103757.118</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-102362.4511</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-102362.4511</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-102362.4511</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-102132.6841</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-102132.6841</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-102132.6841</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-101313.7236</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-90197.28350959998</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-90197.28350959998</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-90304.43949999998</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-105501.3846</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-105500.3846</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-106522.3614</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-105938.4222</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-107635.6213</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-111006.8061</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 STRAT ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-49909.85800000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-22999.10870000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-21955.10870000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-26291.72880000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-30250.85740000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-50854.34770000002</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-85156.09159999999</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-103295.4985</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-103262.4985</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-103312.4985</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-103708.118</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-103707.118</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-103757.118</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-102362.4511</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-102362.4511</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-102362.4511</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-102132.6841</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-102132.6841</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-102132.6841</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-101313.7236</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-101312.7236</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-95840.57550959998</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-89110.63680959998</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-90197.28350959998</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-90197.28350959998</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-90304.43949999998</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-89689.86819999998</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-103047.9043</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-113934.3717</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-105501.3846</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-105500.3846</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-106522.3614</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-105938.4222</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-107635.6213</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-111006.8061</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-110708.6762</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-110708.6762</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
